--- a/Informatics/fifth_lab/solve/main.xlsx
+++ b/Informatics/fifth_lab/solve/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Desktop\main folder\ITMO_files\Informatics\fifth_lab\solve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DBDEE2-8F51-49FA-9509-BF0A4D1B58CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28322DF-6947-4E1D-B660-39D92ABC3593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -945,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -968,7 +968,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="5">
-        <v>0</v>
+        <v>3307</v>
       </c>
       <c r="O1" s="6"/>
       <c r="AG1" t="s">
@@ -980,7 +980,7 @@
         <v>36</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>20458</v>
       </c>
       <c r="AG2" s="15" t="s">
         <v>47</v>
@@ -1057,86 +1057,86 @@
       </c>
       <c r="C4">
         <f>C1</f>
-        <v>0</v>
+        <v>3307</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="12" t="str">
-        <f>IF(G$3="",".",MID(IF($C4&gt;=0,_xlfn.BASE($C4,2,16),_xlfn.BASE($C4+2^16,2,16)),ABS(G$3-16),1))</f>
+        <f t="shared" ref="G4:G15" si="0">IF(G$3="",".",MID(IF($C4&gt;=0,_xlfn.BASE($C4,2,16),_xlfn.BASE($C4+2^16,2,16)),ABS(G$3-16),1))</f>
         <v>0</v>
       </c>
       <c r="H4" s="12" t="str">
-        <f t="shared" ref="H4:Y15" si="0">IF(H$3="",".",MID(IF($C4&gt;0,_xlfn.BASE($C4,2,16),_xlfn.BASE($C4+2^16,2,16)),ABS(H$3-16),1))</f>
+        <f t="shared" ref="H4:Y15" si="1">IF(H$3="",".",MID(IF($C4&gt;0,_xlfn.BASE($C4,2,16),_xlfn.BASE($C4+2^16,2,16)),ABS(H$3-16),1))</f>
         <v>0</v>
       </c>
       <c r="I4" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J4" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K4" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>.</v>
       </c>
       <c r="L4" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="M4" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="N4" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O4" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P4" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>.</v>
       </c>
       <c r="Q4" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="R4" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="S4" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="T4" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U4" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>.</v>
       </c>
       <c r="V4" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="W4" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X4" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="Y4" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="AG4" s="16" t="s">
         <v>51</v>
@@ -1151,85 +1151,85 @@
       </c>
       <c r="C5">
         <f>C2</f>
-        <v>0</v>
+        <v>20458</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="12" t="str">
-        <f>IF(G$3="",".",MID(IF($C5&gt;=0,_xlfn.BASE($C5,2,16),_xlfn.BASE($C5+2^16,2,16)),ABS(G$3-16),1))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="I5" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J5" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>.</v>
       </c>
       <c r="L5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="M5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="N5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="P5" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>.</v>
       </c>
       <c r="Q5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="R5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="S5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="T5" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U5" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>.</v>
       </c>
       <c r="V5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="W5" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="Y5" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG5" s="16" t="s">
@@ -1245,86 +1245,86 @@
       </c>
       <c r="C6">
         <f>C4+C5</f>
-        <v>0</v>
+        <v>23765</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="12" t="str">
-        <f>IF(G$3="",".",MID(IF($C6&gt;=0,_xlfn.BASE($C6,2,16),_xlfn.BASE($C6+2^16,2,16)),ABS(G$3-16),1))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="I6" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K6" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>.</v>
       </c>
       <c r="L6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="M6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="N6" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O6" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P6" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>.</v>
       </c>
       <c r="Q6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="R6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="S6" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="U6" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>.</v>
       </c>
       <c r="V6" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="X6" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="AG6" s="16"/>
     </row>
@@ -1337,86 +1337,86 @@
       </c>
       <c r="C7">
         <f>C6+C5</f>
-        <v>0</v>
+        <v>44223</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="12" t="str">
-        <f>IF(G$3="",".",MID(IF($C7&gt;=0,_xlfn.BASE($C7,2,16),_xlfn.BASE($C7+2^16,2,16)),ABS(G$3-16),1))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="H7" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J7" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K7" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>.</v>
       </c>
       <c r="L7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="M7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="N7" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O7" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P7" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>.</v>
       </c>
       <c r="Q7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="R7" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="T7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="U7" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>.</v>
       </c>
       <c r="V7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="W7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="X7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="Y7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="AG7" s="16"/>
     </row>
@@ -1429,86 +1429,86 @@
       </c>
       <c r="C8">
         <f>C5-C4</f>
-        <v>0</v>
+        <v>17151</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="12" t="str">
-        <f>IF(G$3="",".",MID(IF($C8&gt;=0,_xlfn.BASE($C8,2,16),_xlfn.BASE($C8+2^16,2,16)),ABS(G$3-16),1))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="I8" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J8" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K8" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>.</v>
       </c>
       <c r="L8" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M8" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O8" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P8" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>.</v>
       </c>
       <c r="Q8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="R8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="S8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="T8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="U8" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>.</v>
       </c>
       <c r="V8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="W8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="X8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="Y8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="AG8" s="16"/>
     </row>
@@ -1521,86 +1521,86 @@
       </c>
       <c r="C9">
         <f>65536-C7</f>
-        <v>65536</v>
+        <v>21313</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="12" t="str">
-        <f>IF(G$3="",".",MID(IF($C9&gt;=0,_xlfn.BASE($C9,2,16),_xlfn.BASE($C9+2^16,2,16)),ABS(G$3-16),1))</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="I9" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K9" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>.</v>
       </c>
       <c r="L9" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M9" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="P9" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>.</v>
       </c>
       <c r="Q9" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="S9" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T9" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U9" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>.</v>
       </c>
       <c r="V9" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W9" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X9" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y9" s="12" t="str">
         <f>IF(Y$3="",".",MID(IF($C9&gt;0,_xlfn.BASE($C9,2,16),_xlfn.BASE($C9+2^16,2,16)),ABS(Y$3-16),1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9" s="16"/>
     </row>
@@ -1612,8 +1612,8 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:C15" si="1">-C4</f>
-        <v>0</v>
+        <f t="shared" ref="C10:C15" si="2">-C4</f>
+        <v>-3307</v>
       </c>
       <c r="E10" t="s">
         <v>20</v>
@@ -1623,80 +1623,80 @@
         <v>-B1=</v>
       </c>
       <c r="G10" s="12" t="str">
-        <f>IF(G$3="",".",MID(IF($C10&gt;=0,_xlfn.BASE($C10,2,16),_xlfn.BASE($C10+2^16,2,16)),ABS(G$3-16),1))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="H10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="I10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K10" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>.</v>
       </c>
       <c r="L10" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M10" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="P10" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>.</v>
       </c>
       <c r="Q10" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R10" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S10" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="U10" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>.</v>
       </c>
       <c r="V10" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="X10" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="AG10" s="16"/>
     </row>
@@ -1708,8 +1708,8 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-20458</v>
       </c>
       <c r="E11" t="s">
         <v>23</v>
@@ -1719,79 +1719,79 @@
         <v>-B2=</v>
       </c>
       <c r="G11" s="12" t="str">
-        <f>IF(G$3="",".",MID(IF($C11&gt;=0,_xlfn.BASE($C11,2,16),_xlfn.BASE($C11+2^16,2,16)),ABS(G$3-16),1))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="H11" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K11" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>.</v>
       </c>
       <c r="L11" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M11" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N11" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O11" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P11" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>.</v>
       </c>
       <c r="Q11" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R11" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S11" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="U11" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>.</v>
       </c>
       <c r="V11" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="X11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="Y11" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG11" s="16"/>
@@ -1804,8 +1804,8 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-23765</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
@@ -1815,80 +1815,80 @@
         <v>-B3=</v>
       </c>
       <c r="G12" s="12" t="str">
-        <f>IF(G$3="",".",MID(IF($C12&gt;=0,_xlfn.BASE($C12,2,16),_xlfn.BASE($C12+2^16,2,16)),ABS(G$3-16),1))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="H12" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J12" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K12" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>.</v>
       </c>
       <c r="L12" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M12" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="P12" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>.</v>
       </c>
       <c r="Q12" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R12" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="T12" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U12" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>.</v>
       </c>
       <c r="V12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="W12" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="Y12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
@@ -1899,8 +1899,8 @@
         <v>28</v>
       </c>
       <c r="C13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-44223</v>
       </c>
       <c r="E13" t="s">
         <v>29</v>
@@ -1910,80 +1910,80 @@
         <v>-B4=</v>
       </c>
       <c r="G13" s="12" t="str">
-        <f>IF(G$3="",".",MID(IF($C13&gt;=0,_xlfn.BASE($C13,2,16),_xlfn.BASE($C13+2^16,2,16)),ABS(G$3-16),1))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="I13" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K13" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>.</v>
       </c>
       <c r="L13" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M13" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="O13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="P13" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>.</v>
       </c>
       <c r="Q13" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="S13" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T13" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U13" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>.</v>
       </c>
       <c r="V13" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W13" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X13" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
@@ -1994,8 +1994,8 @@
         <v>31</v>
       </c>
       <c r="C14">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-17151</v>
       </c>
       <c r="E14" t="s">
         <v>32</v>
@@ -2005,80 +2005,80 @@
         <v xml:space="preserve">-B5= </v>
       </c>
       <c r="G14" s="12" t="str">
-        <f>IF(G$3="",".",MID(IF($C14&gt;=0,_xlfn.BASE($C14,2,16),_xlfn.BASE($C14+2^16,2,16)),ABS(G$3-16),1))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="H14" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I14" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J14" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="K14" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>.</v>
       </c>
       <c r="L14" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="M14" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="N14" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O14" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="P14" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>.</v>
       </c>
       <c r="Q14" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R14" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S14" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T14" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U14" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>.</v>
       </c>
       <c r="V14" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W14" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X14" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y14" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
@@ -2089,8 +2089,8 @@
         <v>34</v>
       </c>
       <c r="C15">
-        <f t="shared" si="1"/>
-        <v>-65536</v>
+        <f t="shared" si="2"/>
+        <v>-21313</v>
       </c>
       <c r="E15" t="s">
         <v>35</v>
@@ -2100,39 +2100,39 @@
         <v>-B6=</v>
       </c>
       <c r="G15" s="12" t="str">
-        <f>IF(G$3="",".",MID(IF($C15&gt;=0,_xlfn.BASE($C15,2,16),_xlfn.BASE($C15+2^16,2,16)),ABS(G$3-16),1))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="H15" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I15" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J15" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K15" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>.</v>
       </c>
       <c r="L15" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="M15" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="N15" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O15" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P15" s="12" t="str">
@@ -2140,40 +2140,40 @@
         <v>.</v>
       </c>
       <c r="Q15" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="R15" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S15" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="T15" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="U15" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>.</v>
       </c>
       <c r="V15" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="W15" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="X15" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="Y15" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
@@ -2202,76 +2202,76 @@
         <v>37</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" ref="G17:J17" si="2">IF(G18&lt;&gt;".",IF(G18+G19&lt;&gt;0,IF(G18+G19+H17=3,1,MOD(G18+G19+H17-1,2)),0),H17)</f>
+        <f t="shared" ref="G17:J17" si="3">IF(G18&lt;&gt;".",IF(G18+G19&lt;&gt;0,IF(G18+G19+H17=3,1,MOD(G18+G19+H17-1,2)),0),H17)</f>
         <v>0</v>
       </c>
       <c r="H17" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I17" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J17" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K17" s="9">
         <f>IF(K18&lt;&gt;".",IF(K18+K19&lt;&gt;0,IF(K18+K19+L17=3,1,MOD(K18+K19+L17-1,2)),0),L17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="7">
-        <f t="shared" ref="L17:T17" si="3">IF(L18&lt;&gt;".",IF(L18+L19&lt;&gt;0,IF(L18+L19+M17=3,1,MOD(L18+L19+M17-1,2)),0),M17)</f>
-        <v>0</v>
+        <f t="shared" ref="L17:T17" si="4">IF(L18&lt;&gt;".",IF(L18+L19&lt;&gt;0,IF(L18+L19+M17=3,1,MOD(L18+L19+M17-1,2)),0),M17)</f>
+        <v>1</v>
       </c>
       <c r="M17" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="O17" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="P17" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="Q17" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="R17" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="S17" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="T17" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U17" s="9">
         <f>IF(U18&lt;&gt;".",IF(U18+U19&lt;&gt;0,IF(U18+U19+V17=3,1,MOD(U18+U19+V17-1,2)),0),V17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" s="7">
-        <f t="shared" ref="V17:X17" si="4">IF(V18&lt;&gt;".",IF(V18+V19&lt;&gt;0,IF(V18+V19+W17=3,1,MOD(V18+V19+W17-1,2)),0),W17)</f>
-        <v>0</v>
+        <f t="shared" ref="V17:X17" si="5">IF(V18&lt;&gt;".",IF(V18+V19&lt;&gt;0,IF(V18+V19+W17=3,1,MOD(V18+V19+W17-1,2)),0),W17)</f>
+        <v>1</v>
       </c>
       <c r="W17" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X17" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="Y17" s="7">
         <f>IF(Y18&lt;&gt;".",IF(Y18+Y19&lt;&gt;0,IF(Y18+Y19+Z17=3,1,MOD(Y18+Y19+Z17-1,2)),0),Z17)</f>
@@ -2287,83 +2287,83 @@
         <v>0</v>
       </c>
       <c r="H18" s="12" t="str">
-        <f t="shared" ref="H18:Y19" si="5">H4</f>
+        <f t="shared" ref="H18:Y19" si="6">H4</f>
         <v>0</v>
       </c>
       <c r="I18" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J18" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K18" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>.</v>
       </c>
       <c r="L18" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="M18" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="N18" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O18" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P18" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>.</v>
       </c>
       <c r="Q18" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="R18" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="S18" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="T18" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U18" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>.</v>
       </c>
       <c r="V18" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="W18" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X18" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="Y18" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="AC18" t="s">
         <v>54</v>
       </c>
       <c r="AD18">
         <f>C4</f>
-        <v>0</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="19" spans="4:33" ht="15.6" x14ac:dyDescent="0.35">
@@ -2378,75 +2378,75 @@
         <v>0</v>
       </c>
       <c r="H19" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="I19" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J19" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K19" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>.</v>
       </c>
       <c r="L19" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="M19" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="N19" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="O19" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="P19" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>.</v>
       </c>
       <c r="Q19" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="R19" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="S19" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="T19" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U19" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>.</v>
       </c>
       <c r="V19" s="14" t="str">
         <f>V5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X19" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="Y19" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB19" s="8" t="s">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="AD19" s="4">
         <f>C5</f>
-        <v>0</v>
+        <v>20458</v>
       </c>
       <c r="AG19" t="str">
         <f>IF(W22=0,IF(AND(AA20=AD20,H22=0),$AG$2,$AG$4),IF(G20=0,$AG$5,$AG$3))</f>
@@ -2470,68 +2470,68 @@
         <v>0</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" ref="H20:W20" si="6">IF(H18&lt;&gt;".",MOD(I17+H18+H19,2),".")</f>
-        <v>0</v>
+        <f t="shared" ref="H20:W20" si="7">IF(H18&lt;&gt;".",MOD(I17+H18+H19,2),".")</f>
+        <v>1</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="K20" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>.</v>
       </c>
       <c r="L20" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="M20" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="N20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P20" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>.</v>
       </c>
       <c r="Q20" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="R20" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="S20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T20" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="U20" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>.</v>
       </c>
       <c r="V20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W20" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="X20" s="2">
         <f>IF(X18&lt;&gt;".",MOD(Y17+X18+X19,2),".")</f>
@@ -2539,21 +2539,21 @@
       </c>
       <c r="Y20" s="2">
         <f>IF(Y18&lt;&gt;".",MOD(Z17+Y18+Y19,2),".")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20" s="10" t="s">
         <v>57</v>
       </c>
       <c r="AA20" s="1">
         <f>IF(G20=0,_xlfn.DECIMAL(G20&amp;H20&amp;I20&amp;J20&amp;L20&amp;M20&amp;N20&amp;O20&amp;Q20&amp;R20&amp;S20&amp;T20&amp;V20&amp;W20&amp;X20&amp;Y20,2),0-_xlfn.DECIMAL(H21&amp;I21&amp;J21&amp;L21&amp;M21&amp;N21&amp;O21&amp;Q21&amp;R21&amp;S21&amp;T21&amp;V21&amp;W21&amp;X21&amp;Y21,2))</f>
-        <v>0</v>
+        <v>23765</v>
       </c>
       <c r="AB20" s="10" t="s">
         <v>39</v>
       </c>
       <c r="AD20">
         <f>AD18+AD19</f>
-        <v>0</v>
+        <v>23765</v>
       </c>
       <c r="AE20" s="10" t="s">
         <v>39</v>
@@ -2572,67 +2572,67 @@
         <v/>
       </c>
       <c r="I21" s="2" t="str">
-        <f t="shared" ref="I21:X21" si="7">IF(I20&lt;&gt;".",IF($G$21=1,MID(_xlfn.BASE(ABS(_xlfn.DECIMAL($H20&amp;$I20&amp;$J20&amp;$L20&amp;$M20&amp;$N20&amp;$O20&amp;$Q20&amp;$R20&amp;$S20&amp;$T20&amp;$V20&amp;$W20&amp;$X20&amp;$Y20,2)-2^16),2,16),ABS(I$3-16),1),""),".")</f>
+        <f t="shared" ref="I21:X21" si="8">IF(I20&lt;&gt;".",IF($G$21=1,MID(_xlfn.BASE(ABS(_xlfn.DECIMAL($H20&amp;$I20&amp;$J20&amp;$L20&amp;$M20&amp;$N20&amp;$O20&amp;$Q20&amp;$R20&amp;$S20&amp;$T20&amp;$V20&amp;$W20&amp;$X20&amp;$Y20,2)-2^16),2,16),ABS(I$3-16),1),""),".")</f>
         <v/>
       </c>
       <c r="J21" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K21" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>.</v>
       </c>
       <c r="L21" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M21" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="N21" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="O21" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="P21" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>.</v>
       </c>
       <c r="Q21" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="R21" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S21" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="T21" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U21" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>.</v>
       </c>
       <c r="V21" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="W21" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X21" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y21" s="2" t="str">
@@ -2653,21 +2653,21 @@
       </c>
       <c r="K22" s="5">
         <f>MOD(SUM(V20:Y20)+SUM(Q20:T20)+1,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="s">
         <v>43</v>
       </c>
       <c r="N22" s="5">
         <f>U17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="s">
         <v>44</v>
       </c>
       <c r="Q22" s="5">
         <f>IF(AA20=0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" t="s">
         <v>45</v>
@@ -2693,75 +2693,75 @@
         <v>0</v>
       </c>
       <c r="H25" s="7">
-        <f t="shared" ref="H25:Y25" si="8">IF(H26&lt;&gt;".",IF(H26+H27&lt;&gt;0,IF(H26+H27+I25=3,1,MOD(H26+H27+I25-1,2)),0),I25)</f>
-        <v>0</v>
+        <f t="shared" ref="H25:Y25" si="9">IF(H26&lt;&gt;".",IF(H26+H27&lt;&gt;0,IF(H26+H27+I25=3,1,MOD(H26+H27+I25-1,2)),0),I25)</f>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J25" s="7">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="K25" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="L25" s="7">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="M25" s="7">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="N25" s="7">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="O25" s="7">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="P25" s="9">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="Q25" s="7">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="R25" s="7">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="S25" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T25" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U25" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V25" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W25" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X25" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y25" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2774,75 +2774,75 @@
         <v>0</v>
       </c>
       <c r="H26" s="2" t="str">
-        <f t="shared" ref="H26:Y27" si="9">H5</f>
-        <v>0</v>
+        <f t="shared" ref="H26:Y27" si="10">H5</f>
+        <v>1</v>
       </c>
       <c r="I26" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J26" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K26" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>.</v>
       </c>
       <c r="L26" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="M26" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="N26" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="O26" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="P26" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>.</v>
       </c>
       <c r="Q26" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="R26" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="S26" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="T26" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U26" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>.</v>
       </c>
       <c r="V26" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="W26" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X26" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="Y26" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC26" t="s">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="AD26">
         <f>C5</f>
-        <v>0</v>
+        <v>20458</v>
       </c>
     </row>
     <row r="27" spans="4:33" ht="15.6" x14ac:dyDescent="0.35">
@@ -2865,76 +2865,76 @@
         <v>0</v>
       </c>
       <c r="H27" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="I27" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J27" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="K27" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>.</v>
       </c>
       <c r="L27" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="M27" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="N27" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O27" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P27" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>.</v>
       </c>
       <c r="Q27" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="R27" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="S27" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T27" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="U27" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>.</v>
       </c>
       <c r="V27" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W27" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="X27" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y27" s="3" t="str">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="AB27" s="8" t="s">
         <v>38</v>
@@ -2944,103 +2944,103 @@
       </c>
       <c r="AD27" s="4">
         <f>C6</f>
-        <v>0</v>
+        <v>23765</v>
       </c>
       <c r="AG27" t="str">
         <f>IF(W30=0,IF(AND(AA28=AD28,H30=0),$AG$2,$AG$4),IF(G28=0,$AG$5,$AG$3))</f>
-        <v>Результат корректный</v>
+        <v>При сложении положительных чисел получен отрицательный результат ПЕРЕПОЛНЕНИЕ!</v>
       </c>
     </row>
     <row r="28" spans="4:33" ht="15.6" x14ac:dyDescent="0.35">
       <c r="G28" s="2">
         <f>IF(G26&lt;&gt;".",MOD(H25+G26+G27,2),".")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" ref="H28:Y28" si="10">IF(H26&lt;&gt;".",MOD(I25+H26+H27,2),".")</f>
+        <f t="shared" ref="H28:Y28" si="11">IF(H26&lt;&gt;".",MOD(I25+H26+H27,2),".")</f>
         <v>0</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K28" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>.</v>
       </c>
       <c r="L28" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="M28" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="N28" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O28" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P28" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>.</v>
       </c>
       <c r="Q28" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S28" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="T28" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="U28" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>.</v>
       </c>
       <c r="V28" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="W28" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="X28" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="Y28" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="Z28" s="10" t="s">
         <v>57</v>
       </c>
       <c r="AA28" s="1">
         <f>IF(G28=0,_xlfn.DECIMAL(G28&amp;H28&amp;I28&amp;J28&amp;L28&amp;M28&amp;N28&amp;O28&amp;Q28&amp;R28&amp;S28&amp;T28&amp;V28&amp;W28&amp;X28&amp;Y28,2),0-_xlfn.DECIMAL(H29&amp;I29&amp;J29&amp;L29&amp;M29&amp;N29&amp;O29&amp;Q29&amp;R29&amp;S29&amp;T29&amp;V29&amp;W29&amp;X29&amp;Y29,2))</f>
-        <v>0</v>
+        <v>-21313</v>
       </c>
       <c r="AB28" s="10" t="s">
         <v>39</v>
       </c>
       <c r="AD28">
         <f>AD26+AD27</f>
-        <v>0</v>
+        <v>44223</v>
       </c>
       <c r="AE28" s="10" t="s">
         <v>39</v>
@@ -3050,81 +3050,81 @@
       <c r="E29" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="2" t="str">
+      <c r="G29" s="2">
         <f>IF(G28=0,"",1)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H29" s="2" t="str">
-        <f t="shared" ref="H29:Y29" si="11">IF(H28&lt;&gt;".",IF($G$29=1,MID(_xlfn.BASE(ABS(_xlfn.DECIMAL($H28&amp;$I28&amp;$J28&amp;$L28&amp;$M28&amp;$N28&amp;$O28&amp;$Q28&amp;$R28&amp;$S28&amp;$T28&amp;$V28&amp;$W28&amp;$X28&amp;$Y28,2)-2^16),2,16),ABS(H$3-16),1),""),".")</f>
-        <v/>
+        <f t="shared" ref="H29:Y29" si="12">IF(H28&lt;&gt;".",IF($G$29=1,MID(_xlfn.BASE(ABS(_xlfn.DECIMAL($H28&amp;$I28&amp;$J28&amp;$L28&amp;$M28&amp;$N28&amp;$O28&amp;$Q28&amp;$R28&amp;$S28&amp;$T28&amp;$V28&amp;$W28&amp;$X28&amp;$Y28,2)-2^16),2,16),ABS(H$3-16),1),""),".")</f>
+        <v>1</v>
       </c>
       <c r="I29" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="J29" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="K29" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>.</v>
       </c>
       <c r="L29" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="M29" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="N29" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="O29" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="P29" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>.</v>
       </c>
       <c r="Q29" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="R29" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="S29" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="T29" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="U29" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>.</v>
       </c>
       <c r="V29" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="W29" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="X29" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Y29" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="AG29" s="5"/>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="K30" s="5">
         <f>MOD(SUM(V28:Y28)+SUM(Q28:T28)+1,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" t="s">
         <v>43</v>
@@ -3155,21 +3155,21 @@
       </c>
       <c r="Q30" s="5">
         <f>IF(AA28=0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S30" t="s">
         <v>45</v>
       </c>
       <c r="T30" s="5">
         <f>G28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30" t="s">
         <v>46</v>
       </c>
       <c r="W30" s="5">
         <f>MOD(H25+G25,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="4:33" x14ac:dyDescent="0.3">
@@ -3178,78 +3178,78 @@
       </c>
       <c r="G33" s="7">
         <f>IF(G34&lt;&gt;".",IF(G34+G35&lt;&gt;0,IF(G34+G35+H33=3,1,MOD(G34+G35+H33-1,2)),0),H33)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="7">
-        <f t="shared" ref="H33:Y33" si="12">IF(H34&lt;&gt;".",IF(H34+H35&lt;&gt;0,IF(H34+H35+I33=3,1,MOD(H34+H35+I33-1,2)),0),I33)</f>
-        <v>0</v>
+        <f t="shared" ref="H33:Y33" si="13">IF(H34&lt;&gt;".",IF(H34+H35&lt;&gt;0,IF(H34+H35+I33=3,1,MOD(H34+H35+I33-1,2)),0),I33)</f>
+        <v>1</v>
       </c>
       <c r="I33" s="7">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="J33" s="7">
         <f>IF(J34&lt;&gt;".",IF(J34+J35&lt;&gt;0,IF(J34+J35+K33=3,1,MOD(J34+J35+K33-1,2)),0),K33)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="9">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="L33" s="7">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="M33" s="7">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="N33" s="7">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="O33" s="7">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="P33" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q33" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R33" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S33" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T33" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U33" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V33" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W33" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X33" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y33" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -3262,75 +3262,75 @@
         <v>0</v>
       </c>
       <c r="H34" s="2" t="str">
-        <f t="shared" ref="H34:Y34" si="13">H5</f>
-        <v>0</v>
+        <f t="shared" ref="H34:Y34" si="14">H5</f>
+        <v>1</v>
       </c>
       <c r="I34" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J34" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K34" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>.</v>
       </c>
       <c r="L34" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="M34" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="N34" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="O34" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="P34" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>.</v>
       </c>
       <c r="Q34" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="R34" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="S34" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="T34" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U34" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>.</v>
       </c>
       <c r="V34" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="W34" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X34" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="Y34" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AC34" t="s">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="AD34">
         <f>C5</f>
-        <v>0</v>
+        <v>20458</v>
       </c>
     </row>
     <row r="35" spans="4:33" ht="15.6" x14ac:dyDescent="0.35">
@@ -3350,79 +3350,79 @@
       </c>
       <c r="G35" s="3" t="str">
         <f>G10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="3" t="str">
-        <f t="shared" ref="H35:Y35" si="14">H10</f>
-        <v>0</v>
+        <f t="shared" ref="H35:Y35" si="15">H10</f>
+        <v>1</v>
       </c>
       <c r="I35" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="J35" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="K35" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>.</v>
       </c>
       <c r="L35" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M35" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N35" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="O35" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="P35" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>.</v>
       </c>
       <c r="Q35" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R35" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S35" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T35" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="U35" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>.</v>
       </c>
       <c r="V35" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W35" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="X35" s="3" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y35" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="AB35" s="8" t="s">
         <v>38</v>
@@ -3432,11 +3432,11 @@
       </c>
       <c r="AD35" s="4">
         <f>C10</f>
-        <v>0</v>
+        <v>-3307</v>
       </c>
       <c r="AG35" t="str">
         <f>IF(W38=0,IF(AND(AA36=AD36,H38=0),$AG$2,$AG$4),IF(G36=0,$AG$5,$AG$3))</f>
-        <v>Результат корректный</v>
+        <v>Результат корректный. Перенос из старшего разряда не учитывается</v>
       </c>
     </row>
     <row r="36" spans="4:33" ht="15.6" x14ac:dyDescent="0.35">
@@ -3445,90 +3445,90 @@
         <v>0</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" ref="H36:Y36" si="15">IF(H34&lt;&gt;".",MOD(I33+H34+H35,2),".")</f>
-        <v>0</v>
+        <f t="shared" ref="H36:Y36" si="16">IF(H34&lt;&gt;".",MOD(I33+H34+H35,2),".")</f>
+        <v>1</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K36" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>.</v>
       </c>
       <c r="L36" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M36" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N36" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="O36" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P36" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>.</v>
       </c>
       <c r="Q36" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="R36" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="S36" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="T36" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="U36" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>.</v>
       </c>
       <c r="V36" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="W36" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="X36" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="Y36" s="2">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="Z36" s="10" t="s">
         <v>57</v>
       </c>
       <c r="AA36" s="1">
         <f>IF(G36=0,_xlfn.DECIMAL(G36&amp;H36&amp;I36&amp;J36&amp;L36&amp;M36&amp;N36&amp;O36&amp;Q36&amp;R36&amp;S36&amp;T36&amp;V36&amp;W36&amp;X36&amp;Y36,2),0-_xlfn.DECIMAL(H37&amp;I37&amp;J37&amp;L37&amp;M37&amp;N37&amp;O37&amp;Q37&amp;R37&amp;S37&amp;T37&amp;V37&amp;W37&amp;X37&amp;Y37,2))</f>
-        <v>0</v>
+        <v>17151</v>
       </c>
       <c r="AB36" s="10" t="s">
         <v>39</v>
       </c>
       <c r="AD36">
         <f>AD34+AD35</f>
-        <v>0</v>
+        <v>17151</v>
       </c>
     </row>
     <row r="37" spans="4:33" x14ac:dyDescent="0.3">
@@ -3544,71 +3544,71 @@
         <v/>
       </c>
       <c r="I37" s="2" t="str">
-        <f t="shared" ref="I37:Y37" si="16">IF(I36&lt;&gt;".",IF($G$36=1,MID(_xlfn.BASE(ABS(_xlfn.DECIMAL($H36&amp;$I36&amp;$J36&amp;$L36&amp;$M36&amp;$N36&amp;$O36&amp;$Q36&amp;$R36&amp;$S36&amp;$T36&amp;$V36&amp;$W36&amp;$X36&amp;$Y36,2)-2^16),2,16),ABS(I$3-16),1),""),".")</f>
+        <f t="shared" ref="I37:Y37" si="17">IF(I36&lt;&gt;".",IF($G$36=1,MID(_xlfn.BASE(ABS(_xlfn.DECIMAL($H36&amp;$I36&amp;$J36&amp;$L36&amp;$M36&amp;$N36&amp;$O36&amp;$Q36&amp;$R36&amp;$S36&amp;$T36&amp;$V36&amp;$W36&amp;$X36&amp;$Y36,2)-2^16),2,16),ABS(I$3-16),1),""),".")</f>
         <v/>
       </c>
       <c r="J37" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="K37" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>.</v>
       </c>
       <c r="L37" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="M37" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N37" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="O37" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="P37" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>.</v>
       </c>
       <c r="Q37" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="R37" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S37" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="T37" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U37" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>.</v>
       </c>
       <c r="V37" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W37" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="X37" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="Y37" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -3618,7 +3618,7 @@
       </c>
       <c r="H38" s="5">
         <f>G33</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
         <v>42</v>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="Q38" s="5">
         <f>IF(AA36=0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S38" t="s">
         <v>45</v>
@@ -3662,78 +3662,78 @@
       </c>
       <c r="G41" s="7">
         <f>IF(G42&lt;&gt;".",IF(G42+G43&lt;&gt;0,IF(G42+G43+H41=3,1,MOD(G42+G43+H41-1,2)),0),H41)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="7">
-        <f t="shared" ref="H41:Y41" si="17">IF(H42&lt;&gt;".",IF(H42+H43&lt;&gt;0,IF(H42+H43+I41=3,1,MOD(H42+H43+I41-1,2)),0),I41)</f>
-        <v>0</v>
+        <f t="shared" ref="H41:Y41" si="18">IF(H42&lt;&gt;".",IF(H42+H43&lt;&gt;0,IF(H42+H43+I41=3,1,MOD(H42+H43+I41-1,2)),0),I41)</f>
+        <v>1</v>
       </c>
       <c r="I41" s="7">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="J41" s="7">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="K41" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L41" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M41" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N41" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O41" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P41" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q41" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R41" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S41" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T41" s="7">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="U41" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V41" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W41" s="7">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>1</v>
       </c>
       <c r="X41" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y41" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -3743,86 +3743,86 @@
       </c>
       <c r="G42" s="2" t="str">
         <f>G10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="2" t="str">
-        <f t="shared" ref="H42:Y43" si="18">H10</f>
-        <v>0</v>
+        <f t="shared" ref="H42:Y43" si="19">H10</f>
+        <v>1</v>
       </c>
       <c r="I42" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="J42" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="K42" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>.</v>
       </c>
       <c r="L42" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M42" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N42" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="O42" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="P42" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>.</v>
       </c>
       <c r="Q42" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R42" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="S42" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T42" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="U42" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>.</v>
       </c>
       <c r="V42" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W42" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="X42" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Y42" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="AC42" t="s">
         <v>61</v>
       </c>
       <c r="AD42">
         <f>C10</f>
-        <v>0</v>
+        <v>-3307</v>
       </c>
     </row>
     <row r="43" spans="4:33" ht="15.6" x14ac:dyDescent="0.35">
@@ -3834,78 +3834,78 @@
       </c>
       <c r="G43" s="3" t="str">
         <f>G11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I43" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="J43" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="K43" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>.</v>
       </c>
       <c r="L43" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M43" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N43" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="O43" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P43" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>.</v>
       </c>
       <c r="Q43" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R43" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="S43" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T43" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="U43" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>.</v>
       </c>
       <c r="V43" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W43" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="X43" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="Y43" s="3" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AB43" s="8" t="s">
@@ -3916,184 +3916,184 @@
       </c>
       <c r="AD43" s="4">
         <f>C11</f>
-        <v>0</v>
+        <v>-20458</v>
       </c>
       <c r="AG43" t="str">
         <f>IF(W46=0,IF(AND(AA44=AD44,H46=0),$AG$2,$AG$4),IF(G44=0,$AG$5,$AG$3))</f>
-        <v>Результат корректный</v>
+        <v>Результат корректный. Перенос из старшего разряда не учитывается</v>
       </c>
     </row>
     <row r="44" spans="4:33" ht="15.6" x14ac:dyDescent="0.35">
       <c r="G44" s="2">
         <f>IF(G42&lt;&gt;".",MOD(H41+G42+G43,2),".")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="2">
-        <f t="shared" ref="H44:Y44" si="19">IF(H42&lt;&gt;".",MOD(I41+H42+H43,2),".")</f>
+        <f t="shared" ref="H44:Y44" si="20">IF(H42&lt;&gt;".",MOD(I41+H42+H43,2),".")</f>
         <v>0</v>
       </c>
       <c r="I44" s="2">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>1</v>
       </c>
       <c r="J44" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K44" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>.</v>
       </c>
       <c r="L44" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="M44" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N44" s="2">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>1</v>
       </c>
       <c r="O44" s="2">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>1</v>
       </c>
       <c r="P44" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>.</v>
       </c>
       <c r="Q44" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R44" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S44" s="2">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>1</v>
       </c>
       <c r="T44" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="U44" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>.</v>
       </c>
       <c r="V44" s="2">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>1</v>
       </c>
       <c r="W44" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="X44" s="2">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>1</v>
       </c>
       <c r="Y44" s="2">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>1</v>
       </c>
       <c r="Z44" s="10" t="s">
         <v>57</v>
       </c>
       <c r="AA44" s="1">
         <f>IF(G44=0,_xlfn.DECIMAL(G44&amp;H44&amp;I44&amp;J44&amp;L44&amp;M44&amp;N44&amp;O44&amp;Q44&amp;R44&amp;S44&amp;T44&amp;V44&amp;W44&amp;X44&amp;Y44,2),0-_xlfn.DECIMAL(H45&amp;I45&amp;J45&amp;L45&amp;M45&amp;N45&amp;O45&amp;Q45&amp;R45&amp;S45&amp;T45&amp;V45&amp;W45&amp;X45&amp;Y45,2))</f>
-        <v>0</v>
+        <v>-23765</v>
       </c>
       <c r="AB44" s="10" t="s">
         <v>39</v>
       </c>
       <c r="AD44">
         <f>AD42+AD43</f>
-        <v>0</v>
+        <v>-23765</v>
       </c>
     </row>
     <row r="45" spans="4:33" x14ac:dyDescent="0.3">
       <c r="E45" t="s">
         <v>40</v>
       </c>
-      <c r="G45" s="2" t="str">
+      <c r="G45" s="2">
         <f>IF(G44=0,"",1)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H45" s="2" t="str">
         <f>IF(H44&lt;&gt;".",IF($G$44=1,MID(_xlfn.BASE(ABS(_xlfn.DECIMAL($H44&amp;$I44&amp;$J44&amp;$L44&amp;$M44&amp;$N44&amp;$O44&amp;$Q44&amp;$R44&amp;$S44&amp;$T44&amp;$V44&amp;$W44&amp;$X44&amp;$Y44,2)-2^16),2,16),ABS(H$3-16),1),""),".")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I45" s="2" t="str">
-        <f t="shared" ref="I45:Y45" si="20">IF(I44&lt;&gt;".",IF($G$44=1,MID(_xlfn.BASE(ABS(_xlfn.DECIMAL($H44&amp;$I44&amp;$J44&amp;$L44&amp;$M44&amp;$N44&amp;$O44&amp;$Q44&amp;$R44&amp;$S44&amp;$T44&amp;$V44&amp;$W44&amp;$X44&amp;$Y44,2)-2^16),2,16),ABS(I$3-16),1),""),".")</f>
-        <v/>
+        <f t="shared" ref="I45:Y45" si="21">IF(I44&lt;&gt;".",IF($G$44=1,MID(_xlfn.BASE(ABS(_xlfn.DECIMAL($H44&amp;$I44&amp;$J44&amp;$L44&amp;$M44&amp;$N44&amp;$O44&amp;$Q44&amp;$R44&amp;$S44&amp;$T44&amp;$V44&amp;$W44&amp;$X44&amp;$Y44,2)-2^16),2,16),ABS(I$3-16),1),""),".")</f>
+        <v>0</v>
       </c>
       <c r="J45" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="21"/>
+        <v>1</v>
       </c>
       <c r="K45" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>.</v>
       </c>
       <c r="L45" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="21"/>
+        <v>1</v>
       </c>
       <c r="M45" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="21"/>
+        <v>1</v>
       </c>
       <c r="N45" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="O45" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="P45" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>.</v>
       </c>
       <c r="Q45" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="21"/>
+        <v>1</v>
       </c>
       <c r="R45" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="21"/>
+        <v>1</v>
       </c>
       <c r="S45" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="T45" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="21"/>
+        <v>1</v>
       </c>
       <c r="U45" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>.</v>
       </c>
       <c r="V45" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="W45" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="21"/>
+        <v>1</v>
       </c>
       <c r="X45" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="Y45" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="21"/>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="4:33" x14ac:dyDescent="0.3">
@@ -4102,7 +4102,7 @@
       </c>
       <c r="H46" s="5">
         <f>G41</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
         <v>42</v>
@@ -4123,14 +4123,14 @@
       </c>
       <c r="Q46" s="5">
         <f>IF(AA44=0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46" t="s">
         <v>45</v>
       </c>
       <c r="T46" s="5">
         <f>G44</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V46" t="s">
         <v>46</v>
@@ -4149,78 +4149,78 @@
       </c>
       <c r="G49" s="7">
         <f>IF(G50&lt;&gt;".",IF(G50+G51&lt;&gt;0,IF(G50+G51+H49=3,1,MOD(G50+G51+H49-1,2)),0),H49)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" s="7">
-        <f t="shared" ref="H49:Y49" si="21">IF(H50&lt;&gt;".",IF(H50+H51&lt;&gt;0,IF(H50+H51+I49=3,1,MOD(H50+H51+I49-1,2)),0),I49)</f>
+        <f t="shared" ref="H49:Y49" si="22">IF(H50&lt;&gt;".",IF(H50+H51&lt;&gt;0,IF(H50+H51+I49=3,1,MOD(H50+H51+I49-1,2)),0),I49)</f>
         <v>0</v>
       </c>
       <c r="I49" s="7">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>1</v>
       </c>
       <c r="J49" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K49" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L49" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M49" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N49" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O49" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P49" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Q49" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="R49" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="S49" s="7">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>1</v>
       </c>
       <c r="T49" s="7">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>1</v>
       </c>
       <c r="U49" s="9">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>1</v>
       </c>
       <c r="V49" s="7">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>1</v>
       </c>
       <c r="W49" s="7">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>1</v>
       </c>
       <c r="X49" s="7">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>1</v>
       </c>
       <c r="Y49" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -4230,78 +4230,78 @@
       </c>
       <c r="G50" s="2" t="str">
         <f>G11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="2" t="str">
-        <f t="shared" ref="H50:Y51" si="22">H11</f>
+        <f t="shared" ref="H50:Y51" si="23">H11</f>
         <v>0</v>
       </c>
       <c r="I50" s="2" t="str">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
       <c r="J50" s="2" t="str">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
       <c r="K50" s="2" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>.</v>
       </c>
       <c r="L50" s="2" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M50" s="2" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N50" s="2" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O50" s="2" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P50" s="2" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>.</v>
       </c>
       <c r="Q50" s="2" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="R50" s="2" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="S50" s="2" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="T50" s="2" t="str">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
       <c r="U50" s="2" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>.</v>
       </c>
       <c r="V50" s="2" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W50" s="2" t="str">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
       <c r="X50" s="2" t="str">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
       <c r="Y50" s="2" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AC50" t="s">
@@ -4309,7 +4309,7 @@
       </c>
       <c r="AD50">
         <f>C11</f>
-        <v>0</v>
+        <v>-20458</v>
       </c>
     </row>
     <row r="51" spans="4:33" ht="15.6" x14ac:dyDescent="0.35">
@@ -4321,79 +4321,79 @@
       </c>
       <c r="G51" s="3" t="str">
         <f>G12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I51" s="3" t="str">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
       <c r="J51" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="K51" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>.</v>
       </c>
       <c r="L51" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M51" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N51" s="3" t="str">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
       <c r="O51" s="3" t="str">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
       <c r="P51" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>.</v>
       </c>
       <c r="Q51" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="R51" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="S51" s="3" t="str">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
       <c r="T51" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U51" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>.</v>
       </c>
       <c r="V51" s="3" t="str">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
       <c r="W51" s="3" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="X51" s="3" t="str">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
       <c r="Y51" s="3" t="str">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
       <c r="AB51" s="8" t="s">
         <v>38</v>
@@ -4403,11 +4403,11 @@
       </c>
       <c r="AD51" s="4">
         <f>C12</f>
-        <v>0</v>
+        <v>-23765</v>
       </c>
       <c r="AG51" t="str">
         <f>IF(W54=0,IF(AND(AA52=AD52,H54=0),$AG$2,$AG$4),IF(G52=0,$AG$5,$AG$3))</f>
-        <v>Результат корректный</v>
+        <v>При сложении отрицательных чисел получен положительный результат ПЕРЕПОЛНЕНИЕ!</v>
       </c>
     </row>
     <row r="52" spans="4:33" ht="15.6" x14ac:dyDescent="0.35">
@@ -4416,90 +4416,90 @@
         <v>0</v>
       </c>
       <c r="H52" s="2">
-        <f t="shared" ref="H52:Y52" si="23">IF(H50&lt;&gt;".",MOD(I49+H50+H51,2),".")</f>
-        <v>0</v>
+        <f t="shared" ref="H52:Y52" si="24">IF(H50&lt;&gt;".",MOD(I49+H50+H51,2),".")</f>
+        <v>1</v>
       </c>
       <c r="I52" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J52" s="2">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="K52" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>.</v>
       </c>
       <c r="L52" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M52" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N52" s="2">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="O52" s="2">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="P52" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>.</v>
       </c>
       <c r="Q52" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R52" s="2">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="S52" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="T52" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="U52" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>.</v>
       </c>
       <c r="V52" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W52" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="X52" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Y52" s="2">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="24"/>
+        <v>1</v>
       </c>
       <c r="Z52" s="10" t="s">
         <v>57</v>
       </c>
       <c r="AA52" s="1">
         <f>IF(G52=0,_xlfn.DECIMAL(G52&amp;H52&amp;I52&amp;J52&amp;L52&amp;M52&amp;N52&amp;O52&amp;Q52&amp;R52&amp;S52&amp;T52&amp;V52&amp;W52&amp;X52&amp;Y52,2),0-_xlfn.DECIMAL(H53&amp;I53&amp;J53&amp;L53&amp;M53&amp;N53&amp;O53&amp;Q53&amp;R53&amp;S53&amp;T53&amp;V53&amp;W53&amp;X53&amp;Y53,2))</f>
-        <v>0</v>
+        <v>21313</v>
       </c>
       <c r="AB52" s="10" t="s">
         <v>39</v>
       </c>
       <c r="AD52">
         <f>AD50+AD51</f>
-        <v>0</v>
+        <v>-44223</v>
       </c>
     </row>
     <row r="53" spans="4:33" x14ac:dyDescent="0.3">
@@ -4515,71 +4515,71 @@
         <v/>
       </c>
       <c r="I53" s="2" t="str">
-        <f t="shared" ref="I53:Y53" si="24">IF(I52&lt;&gt;".",IF($G$52=1,MID(_xlfn.BASE(ABS(_xlfn.DECIMAL($H52&amp;$I52&amp;$J52&amp;$L52&amp;$M52&amp;$N52&amp;$O52&amp;$Q52&amp;$R52&amp;$S52&amp;$T52&amp;$V52&amp;$W52&amp;$X52&amp;$Y52,2)-2^16),2,16),ABS(I$3-16),1),""),".")</f>
+        <f t="shared" ref="I53:Y53" si="25">IF(I52&lt;&gt;".",IF($G$52=1,MID(_xlfn.BASE(ABS(_xlfn.DECIMAL($H52&amp;$I52&amp;$J52&amp;$L52&amp;$M52&amp;$N52&amp;$O52&amp;$Q52&amp;$R52&amp;$S52&amp;$T52&amp;$V52&amp;$W52&amp;$X52&amp;$Y52,2)-2^16),2,16),ABS(I$3-16),1),""),".")</f>
         <v/>
       </c>
       <c r="J53" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="K53" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>.</v>
       </c>
       <c r="L53" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="M53" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="N53" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="O53" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="P53" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>.</v>
       </c>
       <c r="Q53" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="R53" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="S53" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="T53" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U53" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>.</v>
       </c>
       <c r="V53" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="W53" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="X53" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Y53" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -4589,7 +4589,7 @@
       </c>
       <c r="H54" s="5">
         <f>G49</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
         <v>42</v>
@@ -4603,14 +4603,14 @@
       </c>
       <c r="N54" s="5">
         <f>U49</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" t="s">
         <v>44</v>
       </c>
       <c r="Q54" s="5">
         <f>IF(AA52=0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S54" t="s">
         <v>45</v>
@@ -4624,7 +4624,7 @@
       </c>
       <c r="W54" s="5">
         <f>MOD(H49+G49,2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="4:33" x14ac:dyDescent="0.3">
@@ -4636,75 +4636,75 @@
         <v>0</v>
       </c>
       <c r="H57" s="7">
-        <f t="shared" ref="H57:Y57" si="25">IF(H58&lt;&gt;".",IF(H58+H59&lt;&gt;0,IF(H58+H59+I57=3,1,MOD(H58+H59+I57-1,2)),0),I57)</f>
+        <f t="shared" ref="H57:Y57" si="26">IF(H58&lt;&gt;".",IF(H58+H59&lt;&gt;0,IF(H58+H59+I57=3,1,MOD(H58+H59+I57-1,2)),0),I57)</f>
         <v>0</v>
       </c>
       <c r="I57" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J57" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K57" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L57" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M57" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="N57" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O57" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P57" s="9">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>1</v>
       </c>
       <c r="Q57" s="7">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>1</v>
       </c>
       <c r="R57" s="7">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>1</v>
       </c>
       <c r="S57" s="7">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>1</v>
       </c>
       <c r="T57" s="7">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>1</v>
       </c>
       <c r="U57" s="9">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>1</v>
       </c>
       <c r="V57" s="7">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>1</v>
       </c>
       <c r="W57" s="7">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>1</v>
       </c>
       <c r="X57" s="7">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>1</v>
       </c>
       <c r="Y57" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -4717,83 +4717,83 @@
         <v>0</v>
       </c>
       <c r="H58" s="2" t="str">
-        <f t="shared" ref="H58:Y58" si="26">H4</f>
+        <f t="shared" ref="H58:Y58" si="27">H4</f>
         <v>0</v>
       </c>
       <c r="I58" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J58" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="K58" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>.</v>
       </c>
       <c r="L58" s="2" t="str">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
       </c>
       <c r="M58" s="2" t="str">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
       </c>
       <c r="N58" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O58" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P58" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>.</v>
       </c>
       <c r="Q58" s="2" t="str">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
       </c>
       <c r="R58" s="2" t="str">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
       </c>
       <c r="S58" s="2" t="str">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
       </c>
       <c r="T58" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="U58" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>.</v>
       </c>
       <c r="V58" s="2" t="str">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
       </c>
       <c r="W58" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X58" s="2" t="str">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
       </c>
       <c r="Y58" s="2" t="str">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>1</v>
       </c>
       <c r="AC58" t="s">
         <v>54</v>
       </c>
       <c r="AD58">
         <f>C4</f>
-        <v>0</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="59" spans="4:33" ht="15.6" x14ac:dyDescent="0.35">
@@ -4805,78 +4805,78 @@
       </c>
       <c r="G59" s="3" t="str">
         <f>G11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" s="3" t="str">
-        <f t="shared" ref="H59:Y59" si="27">H11</f>
+        <f t="shared" ref="H59:Y59" si="28">H11</f>
         <v>0</v>
       </c>
       <c r="I59" s="3" t="str">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>1</v>
       </c>
       <c r="J59" s="3" t="str">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>1</v>
       </c>
       <c r="K59" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>.</v>
       </c>
       <c r="L59" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M59" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N59" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="O59" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P59" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>.</v>
       </c>
       <c r="Q59" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="R59" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S59" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="T59" s="3" t="str">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>1</v>
       </c>
       <c r="U59" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>.</v>
       </c>
       <c r="V59" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W59" s="3" t="str">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>1</v>
       </c>
       <c r="X59" s="3" t="str">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="28"/>
+        <v>1</v>
       </c>
       <c r="Y59" s="3" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AB59" s="8" t="s">
@@ -4887,7 +4887,7 @@
       </c>
       <c r="AD59" s="4">
         <f>C11</f>
-        <v>0</v>
+        <v>-20458</v>
       </c>
       <c r="AG59" t="str">
         <f>IF(W62=0,IF(AND(AA60=AD60,H62=0),$AG$2,$AG$4),IF(G60=0,$AG$5,$AG$3))</f>
@@ -4897,174 +4897,174 @@
     <row r="60" spans="4:33" ht="15.6" x14ac:dyDescent="0.35">
       <c r="G60" s="2">
         <f>IF(G58&lt;&gt;".",MOD(H57+G58+G59,2),".")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" s="2">
-        <f t="shared" ref="H60:Y60" si="28">IF(H58&lt;&gt;".",MOD(I57+H58+H59,2),".")</f>
+        <f t="shared" ref="H60:Y60" si="29">IF(H58&lt;&gt;".",MOD(I57+H58+H59,2),".")</f>
         <v>0</v>
       </c>
       <c r="I60" s="2">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>1</v>
       </c>
       <c r="J60" s="2">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>1</v>
       </c>
       <c r="K60" s="2" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>.</v>
       </c>
       <c r="L60" s="2">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>1</v>
       </c>
       <c r="M60" s="2">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>1</v>
       </c>
       <c r="N60" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O60" s="2">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>1</v>
       </c>
       <c r="P60" s="2" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>.</v>
       </c>
       <c r="Q60" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R60" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="S60" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="T60" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U60" s="2" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>.</v>
       </c>
       <c r="V60" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="W60" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="X60" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Y60" s="2">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>1</v>
       </c>
       <c r="Z60" s="10" t="s">
         <v>57</v>
       </c>
       <c r="AA60" s="1">
         <f>IF(G60=0,_xlfn.DECIMAL(G60&amp;H60&amp;I60&amp;J60&amp;L60&amp;M60&amp;N60&amp;O60&amp;Q60&amp;R60&amp;S60&amp;T60&amp;V60&amp;W60&amp;X60&amp;Y60,2),0-_xlfn.DECIMAL(H61&amp;I61&amp;J61&amp;L61&amp;M61&amp;N61&amp;O61&amp;Q61&amp;R61&amp;S61&amp;T61&amp;V61&amp;W61&amp;X61&amp;Y61,2))</f>
-        <v>0</v>
+        <v>-17151</v>
       </c>
       <c r="AB60" s="10" t="s">
         <v>39</v>
       </c>
       <c r="AD60">
         <f>AD58+AD59</f>
-        <v>0</v>
+        <v>-17151</v>
       </c>
     </row>
     <row r="61" spans="4:33" x14ac:dyDescent="0.3">
       <c r="E61" t="s">
         <v>40</v>
       </c>
-      <c r="G61" s="2" t="str">
+      <c r="G61" s="2">
         <f>IF(G60=0,"",1)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H61" s="2" t="str">
         <f>IF(H60&lt;&gt;".",IF($G$60=1,MID(_xlfn.BASE(ABS(_xlfn.DECIMAL($H60&amp;$I60&amp;$J60&amp;$L60&amp;$M60&amp;$N60&amp;$O60&amp;$Q60&amp;$R60&amp;$S60&amp;$T60&amp;$V60&amp;$W60&amp;$X60&amp;$Y60,2)-2^16),2,16),ABS(H$3-16),1),""),".")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I61" s="2" t="str">
-        <f t="shared" ref="I61:Y61" si="29">IF(I60&lt;&gt;".",IF($G$60=1,MID(_xlfn.BASE(ABS(_xlfn.DECIMAL($H60&amp;$I60&amp;$J60&amp;$L60&amp;$M60&amp;$N60&amp;$O60&amp;$Q60&amp;$R60&amp;$S60&amp;$T60&amp;$V60&amp;$W60&amp;$X60&amp;$Y60,2)-2^16),2,16),ABS(I$3-16),1),""),".")</f>
-        <v/>
+        <f t="shared" ref="I61:Y61" si="30">IF(I60&lt;&gt;".",IF($G$60=1,MID(_xlfn.BASE(ABS(_xlfn.DECIMAL($H60&amp;$I60&amp;$J60&amp;$L60&amp;$M60&amp;$N60&amp;$O60&amp;$Q60&amp;$R60&amp;$S60&amp;$T60&amp;$V60&amp;$W60&amp;$X60&amp;$Y60,2)-2^16),2,16),ABS(I$3-16),1),""),".")</f>
+        <v>0</v>
       </c>
       <c r="J61" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v/>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="K61" s="2" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>.</v>
       </c>
       <c r="L61" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v/>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="M61" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v/>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="N61" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v/>
+        <f t="shared" si="30"/>
+        <v>1</v>
       </c>
       <c r="O61" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v/>
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="P61" s="2" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>.</v>
       </c>
       <c r="Q61" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v/>
+        <f t="shared" si="30"/>
+        <v>1</v>
       </c>
       <c r="R61" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v/>
+        <f t="shared" si="30"/>
+        <v>1</v>
       </c>
       <c r="S61" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v/>
+        <f t="shared" si="30"/>
+        <v>1</v>
       </c>
       <c r="T61" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v/>
+        <f t="shared" si="30"/>
+        <v>1</v>
       </c>
       <c r="U61" s="2" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>.</v>
       </c>
       <c r="V61" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v/>
+        <f t="shared" si="30"/>
+        <v>1</v>
       </c>
       <c r="W61" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v/>
+        <f t="shared" si="30"/>
+        <v>1</v>
       </c>
       <c r="X61" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v/>
+        <f t="shared" si="30"/>
+        <v>1</v>
       </c>
       <c r="Y61" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v/>
+        <f t="shared" si="30"/>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="4:33" x14ac:dyDescent="0.3">
@@ -5080,28 +5080,28 @@
       </c>
       <c r="K62" s="5">
         <f>MOD(SUM(V60:Y60)+SUM(Q60:T60)+1,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62" t="s">
         <v>43</v>
       </c>
       <c r="N62" s="5">
         <f>U57</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62" t="s">
         <v>44</v>
       </c>
       <c r="Q62" s="5">
         <f>IF(AA60=0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S62" t="s">
         <v>45</v>
       </c>
       <c r="T62" s="5">
         <f>G60</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V62" t="s">
         <v>46</v>
@@ -5117,79 +5117,79 @@
       </c>
       <c r="G65" s="7">
         <f>IF(G66&lt;&gt;".",IF(G66+G67&lt;&gt;0,IF(G66+G67+H65=3,1,MOD(G66+G67+H65-1,2)),0),H65)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" s="7">
-        <f t="shared" ref="H65:Y65" si="30">IF(H66&lt;&gt;".",IF(H66+H67&lt;&gt;0,IF(H66+H67+I65=3,1,MOD(H66+H67+I65-1,2)),0),I65)</f>
-        <v>0</v>
+        <f t="shared" ref="H65:Y65" si="31">IF(H66&lt;&gt;".",IF(H66+H67&lt;&gt;0,IF(H66+H67+I65=3,1,MOD(H66+H67+I65-1,2)),0),I65)</f>
+        <v>1</v>
       </c>
       <c r="I65" s="7">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>1</v>
       </c>
       <c r="J65" s="7">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>1</v>
       </c>
       <c r="K65" s="9">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>1</v>
       </c>
       <c r="L65" s="7">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>1</v>
       </c>
       <c r="M65" s="7">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>1</v>
       </c>
       <c r="N65" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O65" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="P65" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Q65" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="R65" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="S65" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T65" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="U65" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V65" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W65" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="X65" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Y65" s="7">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="4:33" ht="15.6" x14ac:dyDescent="0.35">
@@ -5198,86 +5198,86 @@
       </c>
       <c r="G66" s="2" t="str">
         <f>G14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" s="2" t="str">
-        <f t="shared" ref="H66:Y66" si="31">H14</f>
+        <f t="shared" ref="H66:Y66" si="32">H14</f>
         <v>0</v>
       </c>
       <c r="I66" s="2" t="str">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>1</v>
       </c>
       <c r="J66" s="2" t="str">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>1</v>
       </c>
       <c r="K66" s="2" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>.</v>
       </c>
       <c r="L66" s="2" t="str">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>1</v>
       </c>
       <c r="M66" s="2" t="str">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>1</v>
       </c>
       <c r="N66" s="2" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O66" s="2" t="str">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>1</v>
       </c>
       <c r="P66" s="2" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>.</v>
       </c>
       <c r="Q66" s="2" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R66" s="2" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="S66" s="2" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="T66" s="2" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U66" s="2" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>.</v>
       </c>
       <c r="V66" s="2" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="W66" s="2" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="X66" s="2" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Y66" s="2" t="str">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>1</v>
       </c>
       <c r="AC66" t="s">
         <v>67</v>
       </c>
       <c r="AD66">
         <f>C14</f>
-        <v>0</v>
+        <v>-17151</v>
       </c>
     </row>
     <row r="67" spans="4:33" ht="15.6" x14ac:dyDescent="0.35">
@@ -5292,76 +5292,76 @@
         <v>0</v>
       </c>
       <c r="H67" s="3" t="str">
-        <f t="shared" ref="H67:Y67" si="32">H6</f>
-        <v>0</v>
+        <f t="shared" ref="H67:Y67" si="33">H6</f>
+        <v>1</v>
       </c>
       <c r="I67" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="J67" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>1</v>
       </c>
       <c r="K67" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>.</v>
       </c>
       <c r="L67" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>1</v>
       </c>
       <c r="M67" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>1</v>
       </c>
       <c r="N67" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="O67" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="P67" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>.</v>
       </c>
       <c r="Q67" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>1</v>
       </c>
       <c r="R67" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>1</v>
       </c>
       <c r="S67" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="T67" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>1</v>
       </c>
       <c r="U67" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>.</v>
       </c>
       <c r="V67" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W67" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>1</v>
       </c>
       <c r="X67" s="3" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Y67" s="3" t="str">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>1</v>
       </c>
       <c r="AB67" s="8" t="s">
         <v>38</v>
@@ -5371,11 +5371,11 @@
       </c>
       <c r="AD67" s="4">
         <f>C6</f>
-        <v>0</v>
+        <v>23765</v>
       </c>
       <c r="AG67" t="str">
         <f>IF(W70=0,IF(AND(AA68=AD68,H70=0),$AG$2,$AG$4),IF(G68=0,$AG$5,$AG$3))</f>
-        <v>Результат корректный</v>
+        <v>Результат корректный. Перенос из старшего разряда не учитывается</v>
       </c>
     </row>
     <row r="68" spans="4:33" ht="15.6" x14ac:dyDescent="0.35">
@@ -5384,75 +5384,75 @@
         <v>0</v>
       </c>
       <c r="H68" s="2">
-        <f t="shared" ref="H68:Y68" si="33">IF(H66&lt;&gt;".",MOD(I65+H66+H67,2),".")</f>
+        <f t="shared" ref="H68:Y68" si="34">IF(H66&lt;&gt;".",MOD(I65+H66+H67,2),".")</f>
         <v>0</v>
       </c>
       <c r="I68" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J68" s="2">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>1</v>
       </c>
       <c r="K68" s="2" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>.</v>
       </c>
       <c r="L68" s="2">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>1</v>
       </c>
       <c r="M68" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N68" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O68" s="2">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>1</v>
       </c>
       <c r="P68" s="2" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>.</v>
       </c>
       <c r="Q68" s="2">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>1</v>
       </c>
       <c r="R68" s="2">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>1</v>
       </c>
       <c r="S68" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="T68" s="2">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>1</v>
       </c>
       <c r="U68" s="2" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>.</v>
       </c>
       <c r="V68" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W68" s="2">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>1</v>
       </c>
       <c r="X68" s="2">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>1</v>
       </c>
       <c r="Y68" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Z68" s="10" t="s">
@@ -5460,14 +5460,14 @@
       </c>
       <c r="AA68" s="1">
         <f>IF(G68=0,_xlfn.DECIMAL(G68&amp;H68&amp;I68&amp;J68&amp;L68&amp;M68&amp;N68&amp;O68&amp;Q68&amp;R68&amp;S68&amp;T68&amp;V68&amp;W68&amp;X68&amp;Y68,2),0-_xlfn.DECIMAL(H69&amp;I69&amp;J69&amp;L69&amp;M69&amp;N69&amp;O69&amp;Q69&amp;R69&amp;S69&amp;T69&amp;V69&amp;W69&amp;X69&amp;Y69,2))</f>
-        <v>0</v>
+        <v>6614</v>
       </c>
       <c r="AB68" s="10" t="s">
         <v>39</v>
       </c>
       <c r="AD68">
         <f>AD66+AD67</f>
-        <v>0</v>
+        <v>6614</v>
       </c>
     </row>
     <row r="69" spans="4:33" x14ac:dyDescent="0.3">
@@ -5483,71 +5483,71 @@
         <v/>
       </c>
       <c r="I69" s="2" t="str">
-        <f t="shared" ref="I69:Y69" si="34">IF(I68&lt;&gt;".",IF($G$68=1,MID(_xlfn.BASE(ABS(_xlfn.DECIMAL($H68&amp;$I68&amp;$J68&amp;$L68&amp;$M68&amp;$N68&amp;$O68&amp;$Q68&amp;$R68&amp;$S68&amp;$T68&amp;$V68&amp;$W68&amp;$X68&amp;$Y68,2)-2^16),2,16),ABS(I$3-16),1),""),".")</f>
+        <f t="shared" ref="I69:Y69" si="35">IF(I68&lt;&gt;".",IF($G$68=1,MID(_xlfn.BASE(ABS(_xlfn.DECIMAL($H68&amp;$I68&amp;$J68&amp;$L68&amp;$M68&amp;$N68&amp;$O68&amp;$Q68&amp;$R68&amp;$S68&amp;$T68&amp;$V68&amp;$W68&amp;$X68&amp;$Y68,2)-2^16),2,16),ABS(I$3-16),1),""),".")</f>
         <v/>
       </c>
       <c r="J69" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="K69" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>.</v>
       </c>
       <c r="L69" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="M69" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="N69" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="O69" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="P69" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>.</v>
       </c>
       <c r="Q69" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="R69" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="S69" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="T69" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U69" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>.</v>
       </c>
       <c r="V69" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="W69" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="X69" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="Y69" s="2" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
@@ -5557,14 +5557,14 @@
       </c>
       <c r="H70" s="5">
         <f>G65</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
         <v>42</v>
       </c>
       <c r="K70" s="5">
         <f>MOD(SUM(V68:Y68)+SUM(Q68:T68)+1,2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M70" t="s">
         <v>43</v>
@@ -5578,7 +5578,7 @@
       </c>
       <c r="Q70" s="5">
         <f>IF(AA68=0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S70" t="s">
         <v>45</v>
